--- a/proyecto_II_Prueba.xlsx
+++ b/proyecto_II_Prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Programación\Potencia 1\Proyecto_2_Ver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E76BAB9-69AB-4D8D-9B71-5A384B35E519}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA24CB5E-E9FC-4C30-BCA3-ED6801678B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="93">
   <si>
     <t>Tecnología de Generación</t>
   </si>
@@ -301,9 +301,6 @@
     <t>Z trx</t>
   </si>
   <si>
-    <t>1,2,3</t>
-  </si>
-  <si>
     <t>Barras</t>
   </si>
   <si>
@@ -314,6 +311,21 @@
   </si>
   <si>
     <t>Z base</t>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+  </si>
+  <si>
+    <t>Linea Barra 2-3</t>
+  </si>
+  <si>
+    <t>Distancia (km)</t>
+  </si>
+  <si>
+    <t>Linea Barra 2-4</t>
+  </si>
+  <si>
+    <t>S base (100 MVA)</t>
   </si>
 </sst>
 </file>
@@ -328,7 +340,7 @@
     <numFmt numFmtId="168" formatCode="[$-200A]#,##0.00"/>
     <numFmt numFmtId="169" formatCode="0.00\ %"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -357,8 +369,15 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -369,6 +388,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -434,7 +465,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -543,7 +574,7 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -564,7 +595,24 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2169,11 +2217,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomRight" activeCell="H23" sqref="H23:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2181,7 +2229,9 @@
     <col min="1" max="1" width="38.42578125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="4" width="21.28515625" customWidth="1"/>
-    <col min="5" max="8" width="16.7109375" customWidth="1"/>
+    <col min="5" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
     <col min="9" max="9" width="38.42578125" customWidth="1"/>
     <col min="10" max="31" width="16.7109375" customWidth="1"/>
   </cols>
@@ -3189,30 +3239,94 @@
       <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G22" s="19"/>
-      <c r="H22" s="20"/>
+      <c r="D22" t="s">
+        <v>84</v>
+      </c>
+      <c r="E22" t="s">
+        <v>88</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22" s="20">
+        <f>H4*$E$28</f>
+        <v>8.2349999999999994</v>
+      </c>
+      <c r="I22" s="20">
+        <f t="shared" ref="I22:J22" si="0">I4*$E$28</f>
+        <v>108.756</v>
+      </c>
+      <c r="J22" s="20">
+        <f t="shared" si="0"/>
+        <v>1128.8969999999999</v>
+      </c>
     </row>
     <row r="23" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" s="34">
+        <v>400000</v>
+      </c>
       <c r="G23" s="19"/>
-      <c r="H23" s="20"/>
+      <c r="H23" s="52">
+        <f>H22/$E$25</f>
+        <v>5.1468749999999995E-3</v>
+      </c>
+      <c r="I23" s="52">
+        <f t="shared" ref="I23:J23" si="1">I22/$E$25</f>
+        <v>6.7972500000000005E-2</v>
+      </c>
+      <c r="J23" s="51">
+        <f t="shared" si="1"/>
+        <v>0.70556062499999994</v>
+      </c>
     </row>
     <row r="24" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="34">
+        <v>100000000</v>
+      </c>
       <c r="G24" s="19"/>
       <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>87</v>
+      </c>
+      <c r="E25" s="35">
+        <f>(E23*E23)/E24</f>
+        <v>1600</v>
+      </c>
       <c r="G25" s="19"/>
       <c r="H25" s="20"/>
     </row>
     <row r="26" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E26" t="s">
+        <v>90</v>
+      </c>
       <c r="G26" s="19"/>
       <c r="H26" s="20"/>
     </row>
     <row r="27" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27">
+        <v>50</v>
+      </c>
       <c r="G27" s="19"/>
       <c r="H27" s="20"/>
     </row>
     <row r="28" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" s="35">
+        <v>270</v>
+      </c>
       <c r="G28" s="19"/>
       <c r="H28" s="20"/>
     </row>
@@ -35015,10 +35129,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:K1000"/>
+  <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -35029,11 +35143,11 @@
     <col min="4" max="4" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="26" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>30</v>
       </c>
@@ -35065,7 +35179,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
         <v>37</v>
       </c>
@@ -35100,7 +35214,7 @@
         <v>13.260266666666665</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
         <v>37</v>
       </c>
@@ -35127,7 +35241,7 @@
         <v>230000</v>
       </c>
       <c r="I3" s="50">
-        <f t="shared" ref="I3:I14" si="0">(H3*H3)/C3</f>
+        <f t="shared" ref="I3:I13" si="0">(H3*H3)/C3</f>
         <v>1058</v>
       </c>
       <c r="J3" s="45">
@@ -35135,7 +35249,7 @@
         <v>77.339799999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
         <v>37</v>
       </c>
@@ -35170,7 +35284,7 @@
         <v>39.622100000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
         <v>37</v>
       </c>
@@ -35205,7 +35319,7 @@
         <v>19.837499999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
         <v>38</v>
       </c>
@@ -35240,7 +35354,7 @@
         <v>18.204444444444444</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
         <v>38</v>
       </c>
@@ -35274,7 +35388,7 @@
         <v>27.428571428571431</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
         <v>38</v>
       </c>
@@ -35307,8 +35421,12 @@
         <f t="shared" si="1"/>
         <v>53.12</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L8" s="60">
+        <f>J8/I20</f>
+        <v>0.10041587901701322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
         <v>39</v>
       </c>
@@ -35341,12 +35459,12 @@
         <f t="shared" si="1"/>
         <v>88.96</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="58">
         <f>J9/H20</f>
         <v>5.5599999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="46" t="s">
         <v>39</v>
       </c>
@@ -35379,12 +35497,12 @@
         <f t="shared" si="1"/>
         <v>181.6</v>
       </c>
-      <c r="K10" s="51">
+      <c r="K10" s="57">
         <f>J10/H20</f>
         <v>0.11349999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="46" t="s">
         <v>40</v>
       </c>
@@ -35419,7 +35537,7 @@
         <v>86.964435000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
         <v>41</v>
       </c>
@@ -35453,7 +35571,7 @@
         <v>59.263784999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="46" t="s">
         <v>42</v>
       </c>
@@ -35487,122 +35605,135 @@
         <v>92.407027500000012</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
     </row>
-    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
     </row>
-    <row r="16" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
     </row>
-    <row r="17" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
-      <c r="G17" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" t="s">
+      <c r="G17" s="45" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="18" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H17" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="I17" s="59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
-      <c r="G18" t="s">
-        <v>86</v>
-      </c>
-      <c r="H18" s="34">
+      <c r="G18" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="H18" s="50">
         <v>400000</v>
       </c>
-    </row>
-    <row r="19" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I18" s="50">
+        <v>230000</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
-      <c r="G19" t="s">
-        <v>87</v>
-      </c>
-      <c r="H19" s="34">
+      <c r="G19" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="50">
         <v>100000000</v>
       </c>
-    </row>
-    <row r="20" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I19" s="50">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="20" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
-      <c r="G20" t="s">
-        <v>88</v>
-      </c>
-      <c r="H20" s="34">
+      <c r="G20" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="55">
         <f>(H18*H18)/H19</f>
         <v>1600</v>
       </c>
-    </row>
-    <row r="21" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I20" s="55">
+        <f>(I18*I18)/I19</f>
+        <v>529</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
     </row>
-    <row r="22" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
     </row>
-    <row r="23" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
     </row>
-    <row r="24" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
     </row>
-    <row r="25" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
     </row>
-    <row r="26" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
       <c r="F26" s="27"/>
     </row>
-    <row r="27" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
     </row>
-    <row r="28" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
     </row>
-    <row r="29" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
     </row>
-    <row r="30" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
     </row>
-    <row r="31" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
     </row>
-    <row r="32" spans="4:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
@@ -40465,7 +40596,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -40473,7 +40604,7 @@
     <col min="1" max="1" width="14" customWidth="1"/>
     <col min="2" max="2" width="39.5703125" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.7109375" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="7" max="7" width="15" customWidth="1"/>
@@ -40522,11 +40653,11 @@
       <c r="B2" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="25">
-        <v>230</v>
-      </c>
-      <c r="D2" s="28">
-        <v>1500</v>
+      <c r="C2" s="53">
+        <v>230000</v>
+      </c>
+      <c r="D2" s="53">
+        <v>1500000000</v>
       </c>
       <c r="E2" s="28">
         <v>0.9</v>
@@ -40554,11 +40685,11 @@
       <c r="B3" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="25">
-        <v>230</v>
-      </c>
-      <c r="D3" s="28">
-        <v>690</v>
+      <c r="C3" s="53">
+        <v>230000</v>
+      </c>
+      <c r="D3" s="53">
+        <v>690000000</v>
       </c>
       <c r="E3" s="28">
         <v>0.93</v>
@@ -40586,11 +40717,11 @@
       <c r="B4" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="25">
-        <v>115</v>
-      </c>
-      <c r="D4" s="28">
-        <v>500</v>
+      <c r="C4" s="53">
+        <v>115000</v>
+      </c>
+      <c r="D4" s="53">
+        <v>500000000</v>
       </c>
       <c r="E4" s="28">
         <v>0.9</v>
@@ -40618,11 +40749,11 @@
       <c r="B5" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="25">
-        <v>230</v>
-      </c>
-      <c r="D5" s="28">
-        <v>270</v>
+      <c r="C5" s="53">
+        <v>230000</v>
+      </c>
+      <c r="D5" s="53">
+        <v>270000000</v>
       </c>
       <c r="E5" s="28">
         <v>0.88</v>
@@ -40650,11 +40781,11 @@
       <c r="B6" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="25">
-        <v>400</v>
-      </c>
-      <c r="D6" s="28">
-        <v>2200</v>
+      <c r="C6" s="53">
+        <v>400000</v>
+      </c>
+      <c r="D6" s="53">
+        <v>2200000000</v>
       </c>
       <c r="E6" s="28">
         <v>0.8</v>
@@ -40682,11 +40813,11 @@
       <c r="B7" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="25">
-        <v>230</v>
-      </c>
-      <c r="D7" s="28">
-        <v>450</v>
+      <c r="C7" s="53">
+        <v>230000</v>
+      </c>
+      <c r="D7" s="53">
+        <v>450000000</v>
       </c>
       <c r="E7" s="28">
         <v>0.9</v>
@@ -40714,11 +40845,11 @@
       <c r="B8" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="25">
-        <v>400</v>
-      </c>
-      <c r="D8" s="28">
-        <v>750</v>
+      <c r="C8" s="53">
+        <v>400000</v>
+      </c>
+      <c r="D8" s="53">
+        <v>750000000</v>
       </c>
       <c r="E8" s="28">
         <v>0.75</v>

--- a/proyecto_II_Prueba.xlsx
+++ b/proyecto_II_Prueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Programación\Potencia 1\Proyecto_2_Ver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA24CB5E-E9FC-4C30-BCA3-ED6801678B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0656CD-807D-4C4B-B204-8AA163C88D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GEN" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="94">
   <si>
     <t>Tecnología de Generación</t>
   </si>
@@ -327,6 +327,9 @@
   <si>
     <t>S base (100 MVA)</t>
   </si>
+  <si>
+    <t>6,1,12,15,26,22,19,18</t>
+  </si>
 </sst>
 </file>
 
@@ -377,7 +380,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,6 +402,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -613,6 +622,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -830,7 +841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D20"/>
     </sheetView>
   </sheetViews>
@@ -892,11 +903,11 @@
         <v>1875000000</v>
       </c>
       <c r="D2" s="34">
-        <v>200000000</v>
+        <v>100000000</v>
       </c>
       <c r="E2" s="35">
         <f>B2/D2</f>
-        <v>3.75</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -910,11 +921,11 @@
         <v>1250000000</v>
       </c>
       <c r="D3" s="34">
-        <v>200000000</v>
+        <v>100000000</v>
       </c>
       <c r="E3" s="35">
         <f t="shared" ref="E3:E20" si="0">B3/D3</f>
-        <v>2.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -928,11 +939,11 @@
         <v>625000000</v>
       </c>
       <c r="D4" s="34">
-        <v>200000000</v>
+        <v>100000000</v>
       </c>
       <c r="E4" s="35">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -946,11 +957,11 @@
         <v>300000000</v>
       </c>
       <c r="D5" s="34">
-        <v>200000000</v>
+        <v>100000000</v>
       </c>
       <c r="E5" s="35">
         <f t="shared" si="0"/>
-        <v>1.25</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -964,11 +975,11 @@
         <v>240000000</v>
       </c>
       <c r="D6" s="34">
-        <v>200000000</v>
+        <v>100000000</v>
       </c>
       <c r="E6" s="35">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -982,11 +993,11 @@
         <v>180000000</v>
       </c>
       <c r="D7" s="34">
-        <v>200000000</v>
+        <v>100000000</v>
       </c>
       <c r="E7" s="35">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1000,11 +1011,11 @@
         <v>200000000</v>
       </c>
       <c r="D8" s="34">
-        <v>200000000</v>
+        <v>100000000</v>
       </c>
       <c r="E8" s="35">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1018,11 +1029,11 @@
         <v>150000000</v>
       </c>
       <c r="D9" s="34">
-        <v>200000000</v>
+        <v>100000000</v>
       </c>
       <c r="E9" s="35">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1036,11 +1047,11 @@
         <v>100000000</v>
       </c>
       <c r="D10" s="34">
-        <v>200000000</v>
+        <v>100000000</v>
       </c>
       <c r="E10" s="35">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1054,11 +1065,11 @@
         <v>50000000</v>
       </c>
       <c r="D11" s="34">
-        <v>200000000</v>
+        <v>100000000</v>
       </c>
       <c r="E11" s="35">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1072,11 +1083,11 @@
         <v>200000000</v>
       </c>
       <c r="D12" s="34">
-        <v>200000000</v>
+        <v>100000000</v>
       </c>
       <c r="E12" s="35">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1090,11 +1101,11 @@
         <v>150000000</v>
       </c>
       <c r="D13" s="34">
-        <v>200000000</v>
+        <v>100000000</v>
       </c>
       <c r="E13" s="35">
         <f t="shared" si="0"/>
-        <v>0.75</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="14" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1108,11 +1119,11 @@
         <v>100000000</v>
       </c>
       <c r="D14" s="34">
-        <v>200000000</v>
+        <v>100000000</v>
       </c>
       <c r="E14" s="35">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1126,11 +1137,11 @@
         <v>50000000</v>
       </c>
       <c r="D15" s="34">
-        <v>200000000</v>
+        <v>100000000</v>
       </c>
       <c r="E15" s="35">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1144,11 +1155,11 @@
         <v>60000000</v>
       </c>
       <c r="D16" s="34">
-        <v>200000000</v>
+        <v>100000000</v>
       </c>
       <c r="E16" s="35">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1162,11 +1173,11 @@
         <v>160000000</v>
       </c>
       <c r="D17" s="34">
-        <v>200000000</v>
+        <v>100000000</v>
       </c>
       <c r="E17" s="35">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1180,11 +1191,11 @@
         <v>50000000</v>
       </c>
       <c r="D18" s="34">
-        <v>200000000</v>
+        <v>100000000</v>
       </c>
       <c r="E18" s="35">
         <f t="shared" si="0"/>
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1198,11 +1209,11 @@
         <v>120000000</v>
       </c>
       <c r="D19" s="34">
-        <v>200000000</v>
+        <v>100000000</v>
       </c>
       <c r="E19" s="35">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1216,11 +1227,11 @@
         <v>310000000</v>
       </c>
       <c r="D20" s="34">
-        <v>200000000</v>
+        <v>100000000</v>
       </c>
       <c r="E20" s="35">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -35129,10 +35140,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:L1000"/>
+  <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -35144,10 +35155,12 @@
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="26" width="11.5703125" customWidth="1"/>
+    <col min="8" max="9" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="26" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>30</v>
       </c>
@@ -35179,7 +35192,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
         <v>37</v>
       </c>
@@ -35213,8 +35226,12 @@
         <f>I2*B2</f>
         <v>13.260266666666665</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M2" s="62">
+        <f>J2/J20</f>
+        <v>0.10026666666666666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
         <v>37</v>
       </c>
@@ -35249,7 +35266,7 @@
         <v>77.339799999999997</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
         <v>37</v>
       </c>
@@ -35284,7 +35301,7 @@
         <v>39.622100000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
         <v>37</v>
       </c>
@@ -35319,7 +35336,7 @@
         <v>19.837499999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
         <v>38</v>
       </c>
@@ -35354,7 +35371,7 @@
         <v>18.204444444444444</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
         <v>38</v>
       </c>
@@ -35388,7 +35405,7 @@
         <v>27.428571428571431</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
         <v>38</v>
       </c>
@@ -35426,7 +35443,7 @@
         <v>0.10041587901701322</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
         <v>39</v>
       </c>
@@ -35464,7 +35481,7 @@
         <v>5.5599999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="46" t="s">
         <v>39</v>
       </c>
@@ -35502,7 +35519,7 @@
         <v>0.11349999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="46" t="s">
         <v>40</v>
       </c>
@@ -35537,7 +35554,7 @@
         <v>86.964435000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
         <v>41</v>
       </c>
@@ -35571,7 +35588,7 @@
         <v>59.263784999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="46" t="s">
         <v>42</v>
       </c>
@@ -35605,22 +35622,22 @@
         <v>92.407027500000012</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
     </row>
-    <row r="15" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
     </row>
-    <row r="16" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
     </row>
-    <row r="17" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
@@ -35633,8 +35650,11 @@
       <c r="I17" s="59">
         <v>5</v>
       </c>
-    </row>
-    <row r="18" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J17" s="61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
@@ -35647,8 +35667,11 @@
       <c r="I18" s="50">
         <v>230000</v>
       </c>
-    </row>
-    <row r="19" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J18" s="34">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="19" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
@@ -35661,8 +35684,11 @@
       <c r="I19" s="50">
         <v>100000000</v>
       </c>
-    </row>
-    <row r="20" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J19" s="34">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="20" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
@@ -35677,63 +35703,67 @@
         <f>(I18*I18)/I19</f>
         <v>529</v>
       </c>
-    </row>
-    <row r="21" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J20" s="34">
+        <f>(J18*J18)/J19</f>
+        <v>132.25</v>
+      </c>
+    </row>
+    <row r="21" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
     </row>
-    <row r="22" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
     </row>
-    <row r="23" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
     </row>
-    <row r="24" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
     </row>
-    <row r="25" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
     </row>
-    <row r="26" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
       <c r="F26" s="27"/>
     </row>
-    <row r="27" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
     </row>
-    <row r="28" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
     </row>
-    <row r="29" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
     </row>
-    <row r="30" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
     </row>
-    <row r="31" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
     </row>
-    <row r="32" spans="4:9" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>

--- a/proyecto_II_Prueba.xlsx
+++ b/proyecto_II_Prueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Programación\Potencia 1\Proyecto_2_Ver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0656CD-807D-4C4B-B204-8AA163C88D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17089A2E-6A20-46AD-B9D5-58E813F47382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GEN" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="98">
   <si>
     <t>Tecnología de Generación</t>
   </si>
@@ -330,6 +330,18 @@
   <si>
     <t>6,1,12,15,26,22,19,18</t>
   </si>
+  <si>
+    <t>1,2,3,4,23,24</t>
+  </si>
+  <si>
+    <t>5,16,17,20,21,25</t>
+  </si>
+  <si>
+    <t>7,8,9,10,13</t>
+  </si>
+  <si>
+    <t>Linea Barra 7-8</t>
+  </si>
 </sst>
 </file>
 
@@ -380,7 +392,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -411,8 +423,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -470,11 +488,77 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -604,8 +688,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -616,14 +698,27 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -841,8 +936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2229,10 +2324,10 @@
   <dimension ref="A1:AE1000"/>
   <sheetViews>
     <sheetView zoomScale="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H23" sqref="H23:I23"/>
+      <selection pane="bottomRight" activeCell="I27" sqref="I27:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2241,8 +2336,7 @@
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="4" width="21.28515625" customWidth="1"/>
     <col min="5" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="43.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="7" max="8" width="43.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38.42578125" customWidth="1"/>
     <col min="10" max="31" width="16.7109375" customWidth="1"/>
   </cols>
@@ -3250,103 +3344,223 @@
       <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D22" t="s">
+      <c r="A22" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="E22" t="s">
+      <c r="B22" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" t="s">
         <v>88</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="H22" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="H22" s="20">
-        <f>H4*$E$28</f>
+      <c r="I22" s="64">
+        <f>H4*$G$28</f>
         <v>8.2349999999999994</v>
       </c>
-      <c r="I22" s="20">
-        <f t="shared" ref="I22:J22" si="0">I4*$E$28</f>
+      <c r="J22" s="64">
+        <f>I4*$G$28</f>
         <v>108.756</v>
       </c>
-      <c r="J22" s="20">
-        <f t="shared" si="0"/>
+      <c r="K22" s="65">
+        <f>J4*$G$28</f>
         <v>1128.8969999999999</v>
       </c>
     </row>
     <row r="23" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D23" t="s">
+      <c r="A23" s="45" t="s">
         <v>85</v>
       </c>
+      <c r="B23" s="50">
+        <v>400000</v>
+      </c>
+      <c r="C23" s="50">
+        <v>230000</v>
+      </c>
+      <c r="D23" s="34">
+        <v>115000</v>
+      </c>
       <c r="E23" s="34">
+        <f>765000</f>
+        <v>765000</v>
+      </c>
+      <c r="F23" t="s">
+        <v>85</v>
+      </c>
+      <c r="G23" s="34">
         <v>400000</v>
       </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="52">
-        <f>H22/$E$25</f>
+      <c r="H23" s="66"/>
+      <c r="I23" s="67">
+        <f>I22/$B$25</f>
         <v>5.1468749999999995E-3</v>
       </c>
-      <c r="I23" s="52">
-        <f t="shared" ref="I23:J23" si="1">I22/$E$25</f>
+      <c r="J23" s="67">
+        <f>J22/$B$25</f>
         <v>6.7972500000000005E-2</v>
       </c>
-      <c r="J23" s="51">
-        <f t="shared" si="1"/>
+      <c r="K23" s="68">
+        <f>K22/$B$25</f>
         <v>0.70556062499999994</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D24" t="s">
-        <v>86</v>
+      <c r="A24" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" s="50">
+        <v>100000000</v>
+      </c>
+      <c r="C24" s="50">
+        <v>100000000</v>
+      </c>
+      <c r="D24" s="34">
+        <v>100000000</v>
       </c>
       <c r="E24" s="34">
         <v>100000000</v>
       </c>
-      <c r="G24" s="19"/>
-      <c r="H24" s="20"/>
+      <c r="F24" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="34">
+        <v>100000000</v>
+      </c>
+      <c r="H24" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="69">
+        <f>H5*$G$29</f>
+        <v>2.7929999999999997</v>
+      </c>
+      <c r="J24" s="69">
+        <f t="shared" ref="J24:K26" si="0">I5*$G$29</f>
+        <v>64.941999999999993</v>
+      </c>
+      <c r="K24" s="70">
+        <f t="shared" si="0"/>
+        <v>927.56100000000004</v>
+      </c>
     </row>
     <row r="25" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D25" t="s">
+      <c r="A25" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="E25" s="35">
+      <c r="B25" s="53">
+        <f>(B23*B23)/B24</f>
+        <v>1600</v>
+      </c>
+      <c r="C25" s="53">
+        <f>(C23*C23)/C24</f>
+        <v>529</v>
+      </c>
+      <c r="D25" s="34">
+        <f>(D23*D23)/D24</f>
+        <v>132.25</v>
+      </c>
+      <c r="E25" s="34">
         <f>(E23*E23)/E24</f>
+        <v>5852.25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="35">
+        <f>(G23*G23)/G24</f>
         <v>1600</v>
       </c>
-      <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="71">
+        <f>I24/$E$25</f>
+        <v>4.7725233884403427E-4</v>
+      </c>
+      <c r="J25" s="71">
+        <f t="shared" ref="J25:K25" si="1">J24/$E$25</f>
+        <v>1.1096928531761287E-2</v>
+      </c>
+      <c r="K25" s="68">
+        <f t="shared" si="1"/>
+        <v>0.15849647571446879</v>
+      </c>
     </row>
     <row r="26" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E26" t="s">
+      <c r="G26" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="19"/>
-      <c r="H26" s="20"/>
+      <c r="H26" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="69">
+        <f>H5*$G$30</f>
+        <v>2.6753999999999998</v>
+      </c>
+      <c r="J26" s="69">
+        <f t="shared" ref="J26:K26" si="2">I5*$G$30</f>
+        <v>62.207599999999999</v>
+      </c>
+      <c r="K26" s="69">
+        <f t="shared" si="2"/>
+        <v>888.50580000000002</v>
+      </c>
     </row>
     <row r="27" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D27" t="s">
+      <c r="F27" t="s">
         <v>89</v>
       </c>
-      <c r="E27">
+      <c r="G27">
         <v>50</v>
       </c>
-      <c r="G27" s="19"/>
-      <c r="H27" s="20"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="71">
+        <f>I26/$E$25</f>
+        <v>4.571575035242855E-4</v>
+      </c>
+      <c r="J27" s="71">
+        <f t="shared" ref="J27:K27" si="3">J26/$E$25</f>
+        <v>1.0629689435687128E-2</v>
+      </c>
+      <c r="K27" s="71">
+        <f t="shared" si="3"/>
+        <v>0.15182293989491222</v>
+      </c>
     </row>
     <row r="28" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D28" t="s">
+      <c r="F28" t="s">
         <v>91</v>
       </c>
-      <c r="E28" s="35">
+      <c r="G28" s="35">
         <v>270</v>
       </c>
-      <c r="G28" s="19"/>
-      <c r="H28" s="20"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="20"/>
     </row>
     <row r="29" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G29" s="19"/>
+      <c r="F29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" s="19">
+        <v>190</v>
+      </c>
       <c r="H29" s="20"/>
     </row>
     <row r="30" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G30" s="19"/>
+      <c r="G30" s="19">
+        <v>182</v>
+      </c>
       <c r="H30" s="20"/>
     </row>
     <row r="31" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -35140,10 +35354,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M1000"/>
+  <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -35155,12 +35369,13 @@
     <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="26" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="36" t="s">
         <v>30</v>
       </c>
@@ -35192,7 +35407,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
         <v>37</v>
       </c>
@@ -35226,12 +35441,12 @@
         <f>I2*B2</f>
         <v>13.260266666666665</v>
       </c>
-      <c r="M2" s="62">
+      <c r="M2" s="61">
         <f>J2/J20</f>
         <v>0.10026666666666666</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
         <v>37</v>
       </c>
@@ -35265,8 +35480,12 @@
         <f t="shared" ref="J3:J13" si="1">I3*B3</f>
         <v>77.339799999999997</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="L3" s="60">
+        <f>J3/I20</f>
+        <v>0.1462</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="39" t="s">
         <v>37</v>
       </c>
@@ -35301,7 +35520,7 @@
         <v>39.622100000000003</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="39" t="s">
         <v>37</v>
       </c>
@@ -35336,7 +35555,7 @@
         <v>19.837499999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="39" t="s">
         <v>38</v>
       </c>
@@ -35371,7 +35590,7 @@
         <v>18.204444444444444</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="39" t="s">
         <v>38</v>
       </c>
@@ -35405,7 +35624,7 @@
         <v>27.428571428571431</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="39" t="s">
         <v>38</v>
       </c>
@@ -35443,7 +35662,7 @@
         <v>0.10041587901701322</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="39" t="s">
         <v>39</v>
       </c>
@@ -35481,7 +35700,7 @@
         <v>5.5599999999999997E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="46" t="s">
         <v>39</v>
       </c>
@@ -35514,12 +35733,12 @@
         <f t="shared" si="1"/>
         <v>181.6</v>
       </c>
-      <c r="K10" s="57">
+      <c r="K10" s="59">
         <f>J10/H20</f>
         <v>0.11349999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="46" t="s">
         <v>40</v>
       </c>
@@ -35554,7 +35773,7 @@
         <v>86.964435000000009</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="46" t="s">
         <v>41</v>
       </c>
@@ -35587,8 +35806,12 @@
         <f t="shared" si="1"/>
         <v>59.263784999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N12" s="62">
+        <f>J12/K20</f>
+        <v>1.0126666666666666E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="46" t="s">
         <v>42</v>
       </c>
@@ -35621,40 +35844,47 @@
         <f t="shared" si="1"/>
         <v>92.407027500000012</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N13" s="62">
+        <f>J13/K20</f>
+        <v>1.5790000000000002E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D14" s="27"/>
       <c r="E14" s="27"/>
       <c r="F14" s="27"/>
     </row>
-    <row r="15" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D15" s="27"/>
       <c r="E15" s="27"/>
       <c r="F15" s="27"/>
     </row>
-    <row r="16" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D16" s="27"/>
       <c r="E16" s="27"/>
       <c r="F16" s="27"/>
     </row>
-    <row r="17" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D17" s="27"/>
       <c r="E17" s="27"/>
       <c r="F17" s="27"/>
       <c r="G17" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="I17" s="59">
-        <v>5</v>
-      </c>
-      <c r="J17" s="61" t="s">
+      <c r="H17" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="I17" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="J17" s="55" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="18" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K17" s="56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D18" s="27"/>
       <c r="E18" s="27"/>
       <c r="F18" s="27"/>
@@ -35670,12 +35900,16 @@
       <c r="J18" s="34">
         <v>115000</v>
       </c>
-    </row>
-    <row r="19" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K18" s="34">
+        <f>765000</f>
+        <v>765000</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D19" s="27"/>
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
-      <c r="G19" s="54" t="s">
+      <c r="G19" s="52" t="s">
         <v>92</v>
       </c>
       <c r="H19" s="50">
@@ -35687,19 +35921,22 @@
       <c r="J19" s="34">
         <v>100000000</v>
       </c>
-    </row>
-    <row r="20" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K19" s="34">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D20" s="27"/>
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
       <c r="G20" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="H20" s="55">
+      <c r="H20" s="53">
         <f>(H18*H18)/H19</f>
         <v>1600</v>
       </c>
-      <c r="I20" s="55">
+      <c r="I20" s="53">
         <f>(I18*I18)/I19</f>
         <v>529</v>
       </c>
@@ -35707,63 +35944,67 @@
         <f>(J18*J18)/J19</f>
         <v>132.25</v>
       </c>
-    </row>
-    <row r="21" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K20" s="34">
+        <f>(K18*K18)/K19</f>
+        <v>5852.25</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D21" s="27"/>
       <c r="E21" s="27"/>
       <c r="F21" s="27"/>
     </row>
-    <row r="22" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D22" s="27"/>
       <c r="E22" s="27"/>
       <c r="F22" s="27"/>
     </row>
-    <row r="23" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D23" s="27"/>
       <c r="E23" s="27"/>
       <c r="F23" s="27"/>
     </row>
-    <row r="24" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D24" s="27"/>
       <c r="E24" s="27"/>
       <c r="F24" s="27"/>
     </row>
-    <row r="25" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
       <c r="F25" s="27"/>
     </row>
-    <row r="26" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D26" s="27"/>
       <c r="E26" s="27"/>
       <c r="F26" s="27"/>
     </row>
-    <row r="27" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="4:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D27" s="27"/>
       <c r="E27" s="27"/>
       <c r="F27" s="27"/>
     </row>
-    <row r="28" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="4:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D28" s="27"/>
       <c r="E28" s="27"/>
       <c r="F28" s="27"/>
     </row>
-    <row r="29" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="4:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D29" s="27"/>
       <c r="E29" s="27"/>
       <c r="F29" s="27"/>
     </row>
-    <row r="30" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="4:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D30" s="27"/>
       <c r="E30" s="27"/>
       <c r="F30" s="27"/>
     </row>
-    <row r="31" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="4:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D31" s="27"/>
       <c r="E31" s="27"/>
       <c r="F31" s="27"/>
     </row>
-    <row r="32" spans="4:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="4:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D32" s="27"/>
       <c r="E32" s="27"/>
       <c r="F32" s="27"/>
@@ -40626,7 +40867,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -40683,10 +40924,10 @@
       <c r="B2" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="53">
+      <c r="C2" s="51">
         <v>230000</v>
       </c>
-      <c r="D2" s="53">
+      <c r="D2" s="51">
         <v>1500000000</v>
       </c>
       <c r="E2" s="28">
@@ -40715,10 +40956,10 @@
       <c r="B3" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="53">
+      <c r="C3" s="51">
         <v>230000</v>
       </c>
-      <c r="D3" s="53">
+      <c r="D3" s="51">
         <v>690000000</v>
       </c>
       <c r="E3" s="28">
@@ -40747,10 +40988,10 @@
       <c r="B4" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="53">
+      <c r="C4" s="51">
         <v>115000</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="51">
         <v>500000000</v>
       </c>
       <c r="E4" s="28">
@@ -40779,10 +41020,10 @@
       <c r="B5" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="53">
+      <c r="C5" s="51">
         <v>230000</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="51">
         <v>270000000</v>
       </c>
       <c r="E5" s="28">
@@ -40811,10 +41052,10 @@
       <c r="B6" s="25" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="53">
+      <c r="C6" s="51">
         <v>400000</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="51">
         <v>2200000000</v>
       </c>
       <c r="E6" s="28">
@@ -40843,10 +41084,10 @@
       <c r="B7" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="53">
+      <c r="C7" s="51">
         <v>230000</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="51">
         <v>450000000</v>
       </c>
       <c r="E7" s="28">
@@ -40875,10 +41116,10 @@
       <c r="B8" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="53">
+      <c r="C8" s="51">
         <v>400000</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="51">
         <v>750000000</v>
       </c>
       <c r="E8" s="28">
@@ -40911,10 +41152,79 @@
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="56" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="50">
+        <v>400000</v>
+      </c>
+      <c r="D14" s="50">
+        <v>230000</v>
+      </c>
+      <c r="E14" s="34">
+        <v>115000</v>
+      </c>
+      <c r="F14" s="34">
+        <f>765000</f>
+        <v>765000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C15" s="50">
+        <v>100000000</v>
+      </c>
+      <c r="D15" s="50">
+        <v>100000000</v>
+      </c>
+      <c r="E15" s="34">
+        <v>100000000</v>
+      </c>
+      <c r="F15" s="34">
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="53">
+        <f>(C14*C14)/C15</f>
+        <v>1600</v>
+      </c>
+      <c r="D16" s="53">
+        <f>(D14*D14)/D15</f>
+        <v>529</v>
+      </c>
+      <c r="E16" s="34">
+        <f>(E14*E14)/E15</f>
+        <v>132.25</v>
+      </c>
+      <c r="F16" s="34">
+        <f>(F14*F14)/F15</f>
+        <v>5852.25</v>
+      </c>
+    </row>
     <row r="17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="19" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/proyecto_II_Prueba.xlsx
+++ b/proyecto_II_Prueba.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Programación\Potencia 1\Proyecto_2_Ver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17089A2E-6A20-46AD-B9D5-58E813F47382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCB718E-74C6-4B05-90B9-58D3A3822600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GEN" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="109">
   <si>
     <t>Tecnología de Generación</t>
   </si>
@@ -307,13 +307,7 @@
     <t xml:space="preserve">V Base </t>
   </si>
   <si>
-    <t>S base</t>
-  </si>
-  <si>
     <t>Z base</t>
-  </si>
-  <si>
-    <t>1,2,3,4</t>
   </si>
   <si>
     <t>Linea Barra 2-3</t>
@@ -340,7 +334,46 @@
     <t>7,8,9,10,13</t>
   </si>
   <si>
-    <t>Linea Barra 7-8</t>
+    <t>Linea Barra 9-10</t>
+  </si>
+  <si>
+    <t>Linea Barra 7-8/8-9</t>
+  </si>
+  <si>
+    <t>50 km a Bolivar</t>
+  </si>
+  <si>
+    <t>765 KV - 190 km</t>
+  </si>
+  <si>
+    <t>765 KV - 182 km</t>
+  </si>
+  <si>
+    <t>765 KV - 160 km</t>
+  </si>
+  <si>
+    <t>765 KV - 240 km</t>
+  </si>
+  <si>
+    <t>230KV - 240 km</t>
+  </si>
+  <si>
+    <t>Linea Barra 16-17</t>
+  </si>
+  <si>
+    <t>Linea Barra 10-13</t>
+  </si>
+  <si>
+    <t>Linea Barra 9-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>230KV - 220 km</t>
+  </si>
+  <si>
+    <t>Linea Barra 17-20</t>
   </si>
 </sst>
 </file>
@@ -430,7 +463,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -554,11 +587,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="hair">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -713,12 +761,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2323,11 +2377,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F15" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I27" sqref="I27:J27"/>
+      <selection pane="bottomRight" activeCell="I35" sqref="I35:K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2336,7 +2390,8 @@
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="4" width="21.28515625" customWidth="1"/>
     <col min="5" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="8" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="43.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38.42578125" customWidth="1"/>
     <col min="10" max="31" width="16.7109375" customWidth="1"/>
   </cols>
@@ -3348,22 +3403,16 @@
         <v>84</v>
       </c>
       <c r="B22" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="E22" s="56" t="s">
         <v>94</v>
-      </c>
-      <c r="C22" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" t="s">
-        <v>88</v>
       </c>
       <c r="H22" s="63" t="s">
         <v>22</v>
@@ -3398,29 +3447,26 @@
         <f>765000</f>
         <v>765000</v>
       </c>
-      <c r="F23" t="s">
-        <v>85</v>
-      </c>
-      <c r="G23" s="34">
-        <v>400000</v>
-      </c>
-      <c r="H23" s="66"/>
-      <c r="I23" s="67">
+      <c r="G23" s="34"/>
+      <c r="H23" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" s="66">
         <f>I22/$B$25</f>
         <v>5.1468749999999995E-3</v>
       </c>
-      <c r="J23" s="67">
+      <c r="J23" s="66">
         <f>J22/$B$25</f>
         <v>6.7972500000000005E-2</v>
       </c>
-      <c r="K23" s="68">
+      <c r="K23" s="67">
         <f>K22/$B$25</f>
         <v>0.70556062499999994</v>
       </c>
     </row>
     <row r="24" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="52" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B24" s="50">
         <v>100000000</v>
@@ -3434,31 +3480,26 @@
       <c r="E24" s="34">
         <v>100000000</v>
       </c>
-      <c r="F24" t="s">
-        <v>86</v>
-      </c>
-      <c r="G24" s="34">
-        <v>100000000</v>
-      </c>
+      <c r="G24" s="34"/>
       <c r="H24" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="I24" s="69">
+      <c r="I24" s="68">
         <f>H5*$G$29</f>
         <v>2.7929999999999997</v>
       </c>
-      <c r="J24" s="69">
-        <f t="shared" ref="J24:K26" si="0">I5*$G$29</f>
+      <c r="J24" s="68">
+        <f t="shared" ref="J24:K24" si="0">I5*$G$29</f>
         <v>64.941999999999993</v>
       </c>
-      <c r="K24" s="70">
+      <c r="K24" s="69">
         <f t="shared" si="0"/>
         <v>927.56100000000004</v>
       </c>
     </row>
     <row r="25" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B25" s="53">
         <f>(B23*B23)/B24</f>
@@ -3476,39 +3517,35 @@
         <f>(E23*E23)/E24</f>
         <v>5852.25</v>
       </c>
-      <c r="F25" t="s">
-        <v>87</v>
-      </c>
-      <c r="G25" s="35">
-        <f>(G23*G23)/G24</f>
-        <v>1600</v>
-      </c>
-      <c r="H25" s="66"/>
-      <c r="I25" s="71">
+      <c r="G25" s="35"/>
+      <c r="H25" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="I25" s="70">
         <f>I24/$E$25</f>
         <v>4.7725233884403427E-4</v>
       </c>
-      <c r="J25" s="71">
+      <c r="J25" s="70">
         <f t="shared" ref="J25:K25" si="1">J24/$E$25</f>
         <v>1.1096928531761287E-2</v>
       </c>
-      <c r="K25" s="68">
+      <c r="K25" s="67">
         <f t="shared" si="1"/>
         <v>0.15849647571446879</v>
       </c>
     </row>
     <row r="26" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G26" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H26" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="69">
+      <c r="I26" s="68">
         <f>H5*$G$30</f>
         <v>2.6753999999999998</v>
       </c>
-      <c r="J26" s="69">
+      <c r="J26" s="68">
         <f t="shared" ref="J26:K26" si="2">I5*$G$30</f>
         <v>62.207599999999999</v>
       </c>
@@ -3519,69 +3556,205 @@
     </row>
     <row r="27" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G27">
         <v>50</v>
       </c>
-      <c r="H27" s="66"/>
-      <c r="I27" s="71">
+      <c r="H27" s="72" t="s">
+        <v>99</v>
+      </c>
+      <c r="I27" s="70">
         <f>I26/$E$25</f>
         <v>4.571575035242855E-4</v>
       </c>
-      <c r="J27" s="71">
+      <c r="J27" s="70">
         <f t="shared" ref="J27:K27" si="3">J26/$E$25</f>
         <v>1.0629689435687128E-2</v>
       </c>
-      <c r="K27" s="71">
+      <c r="K27" s="67">
         <f t="shared" si="3"/>
         <v>0.15182293989491222</v>
       </c>
     </row>
     <row r="28" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G28" s="35">
         <v>270</v>
       </c>
-      <c r="H28" s="19"/>
-      <c r="I28" s="20"/>
+      <c r="H28" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="I28" s="68">
+        <f>H5*$G$31</f>
+        <v>2.3519999999999999</v>
+      </c>
+      <c r="J28" s="68">
+        <f t="shared" ref="J28:K28" si="4">I5*$G$31</f>
+        <v>54.688000000000002</v>
+      </c>
+      <c r="K28" s="68">
+        <f t="shared" si="4"/>
+        <v>781.10400000000004</v>
+      </c>
     </row>
     <row r="29" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G29" s="19">
         <v>190</v>
       </c>
-      <c r="H29" s="20"/>
+      <c r="H29" s="72" t="s">
+        <v>100</v>
+      </c>
+      <c r="I29" s="70">
+        <f>I28/$E$25</f>
+        <v>4.0189670639497626E-4</v>
+      </c>
+      <c r="J29" s="70">
+        <f t="shared" ref="J29:K29" si="5">J28/$E$25</f>
+        <v>9.34478192148319E-3</v>
+      </c>
+      <c r="K29" s="67">
+        <f t="shared" si="5"/>
+        <v>0.13347071639113162</v>
+      </c>
     </row>
     <row r="30" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>95</v>
+      </c>
       <c r="G30" s="19">
         <v>182</v>
       </c>
-      <c r="H30" s="20"/>
+      <c r="H30" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="I30" s="68">
+        <f>H5*$G$32</f>
+        <v>3.528</v>
+      </c>
+      <c r="J30" s="68">
+        <f t="shared" ref="J30:K30" si="6">I5*$G$32</f>
+        <v>82.031999999999996</v>
+      </c>
+      <c r="K30" s="68">
+        <f t="shared" si="6"/>
+        <v>1171.6559999999999</v>
+      </c>
     </row>
     <row r="31" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G31" s="19"/>
-      <c r="H31" s="20"/>
+      <c r="F31" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" s="19">
+        <v>160</v>
+      </c>
+      <c r="H31" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="I31" s="70">
+        <f>I30/$E$25</f>
+        <v>6.0284505959246439E-4</v>
+      </c>
+      <c r="J31" s="70">
+        <f t="shared" ref="J31:K31" si="7">J30/$E$25</f>
+        <v>1.4017172882224784E-2</v>
+      </c>
+      <c r="K31" s="67">
+        <f t="shared" si="7"/>
+        <v>0.20020607458669742</v>
+      </c>
     </row>
     <row r="32" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G32" s="19"/>
-      <c r="H32" s="20"/>
+      <c r="F32" t="s">
+        <v>104</v>
+      </c>
+      <c r="G32" s="19">
+        <v>240</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="73">
+        <f>H3*$G$33</f>
+        <v>17.928000000000001</v>
+      </c>
+      <c r="J32" s="73">
+        <f t="shared" ref="J32:K32" si="8">I3*$G$33</f>
+        <v>114.648</v>
+      </c>
+      <c r="K32" s="73">
+        <f t="shared" si="8"/>
+        <v>837.6</v>
+      </c>
     </row>
     <row r="33" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G33" s="19"/>
-      <c r="H33" s="20"/>
+      <c r="F33" t="s">
+        <v>103</v>
+      </c>
+      <c r="G33" s="19">
+        <v>240</v>
+      </c>
+      <c r="H33" s="74" t="s">
+        <v>102</v>
+      </c>
+      <c r="I33" s="75">
+        <f>I32/C25</f>
+        <v>3.3890359168241971E-2</v>
+      </c>
+      <c r="J33" s="75">
+        <f t="shared" ref="J33:K33" si="9">J32/D25</f>
+        <v>0.86690359168241959</v>
+      </c>
+      <c r="K33" s="75">
+        <f t="shared" si="9"/>
+        <v>0.14312443931821095</v>
+      </c>
     </row>
     <row r="34" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G34" s="19"/>
-      <c r="H34" s="20"/>
+      <c r="F34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G34" s="19">
+        <v>220</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34">
+        <f>$G$34*H3</f>
+        <v>16.434000000000001</v>
+      </c>
+      <c r="J34">
+        <f t="shared" ref="J34:K34" si="10">$G$34*I3</f>
+        <v>105.09400000000001</v>
+      </c>
+      <c r="K34">
+        <f t="shared" si="10"/>
+        <v>767.80000000000007</v>
+      </c>
     </row>
     <row r="35" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G35" s="19"/>
-      <c r="H35" s="20"/>
+      <c r="H35" s="74" t="s">
+        <v>107</v>
+      </c>
+      <c r="I35">
+        <f>I34/$C$25</f>
+        <v>3.106616257088847E-2</v>
+      </c>
+      <c r="J35">
+        <f t="shared" ref="J35:K35" si="11">J34/$C$25</f>
+        <v>0.19866540642722119</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="11"/>
+        <v>1.4514177693761816</v>
+      </c>
     </row>
     <row r="36" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G36" s="19"/>
@@ -35356,7 +35529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -35441,6 +35614,10 @@
         <f>I2*B2</f>
         <v>13.260266666666665</v>
       </c>
+      <c r="L2" s="60">
+        <f>J2/I20</f>
+        <v>2.5066666666666664E-2</v>
+      </c>
       <c r="M2" s="61">
         <f>J2/J20</f>
         <v>0.10026666666666666</v>
@@ -35483,6 +35660,10 @@
       <c r="L3" s="60">
         <f>J3/I20</f>
         <v>0.1462</v>
+      </c>
+      <c r="M3" s="61">
+        <f>J3/J20</f>
+        <v>0.58479999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -35872,16 +36053,16 @@
         <v>84</v>
       </c>
       <c r="H17" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="I17" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="K17" s="56" t="s">
         <v>94</v>
-      </c>
-      <c r="I17" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="J17" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="K17" s="56" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="18" spans="4:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -35910,7 +36091,7 @@
       <c r="E19" s="27"/>
       <c r="F19" s="27"/>
       <c r="G19" s="52" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H19" s="50">
         <v>100000000</v>
@@ -35930,7 +36111,7 @@
       <c r="E20" s="27"/>
       <c r="F20" s="27"/>
       <c r="G20" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H20" s="53">
         <f>(H18*H18)/H19</f>
@@ -40867,7 +41048,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -41151,22 +41332,26 @@
     </row>
     <row r="10" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H12" t="s">
+        <v>106</v>
+      </c>
+    </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="45" t="s">
         <v>84</v>
       </c>
       <c r="C13" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="F13" s="56" t="s">
         <v>94</v>
-      </c>
-      <c r="D13" s="54" t="s">
-        <v>95</v>
-      </c>
-      <c r="E13" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="F13" s="56" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -41189,7 +41374,7 @@
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="52" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C15" s="50">
         <v>100000000</v>
@@ -41206,7 +41391,7 @@
     </row>
     <row r="16" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C16" s="53">
         <f>(C14*C14)/C15</f>

--- a/proyecto_II_Prueba.xlsx
+++ b/proyecto_II_Prueba.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Programación\Potencia 1\Proyecto_2_Ver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CCB718E-74C6-4B05-90B9-58D3A3822600}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DBE6A2-5FCF-4EE8-B364-4B3D51D266EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GEN" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="115">
   <si>
     <t>Tecnología de Generación</t>
   </si>
@@ -375,6 +375,24 @@
   <si>
     <t>Linea Barra 17-20</t>
   </si>
+  <si>
+    <t>230KV - 135 km</t>
+  </si>
+  <si>
+    <t>Linea Barra 23-24</t>
+  </si>
+  <si>
+    <t>Linea Barra 20-21</t>
+  </si>
+  <si>
+    <t>400 KV - 138 km</t>
+  </si>
+  <si>
+    <t>Linea Barra 20-25</t>
+  </si>
+  <si>
+    <t>230KV - 230 km</t>
+  </si>
 </sst>
 </file>
 
@@ -606,7 +624,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -773,6 +791,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2377,11 +2396,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="G14" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScale="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I35" sqref="I35:K35"/>
+      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3739,7 +3758,12 @@
       </c>
     </row>
     <row r="35" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G35" s="19"/>
+      <c r="F35" t="s">
+        <v>111</v>
+      </c>
+      <c r="G35" s="19">
+        <v>135</v>
+      </c>
       <c r="H35" s="74" t="s">
         <v>107</v>
       </c>
@@ -3757,16 +3781,68 @@
       </c>
     </row>
     <row r="36" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G36" s="19"/>
-      <c r="H36" s="20"/>
+      <c r="F36" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" s="19">
+        <v>138</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36">
+        <f>$G$35*H3</f>
+        <v>10.0845</v>
+      </c>
+      <c r="J36">
+        <f t="shared" ref="J36:K36" si="12">$G$35*I3</f>
+        <v>64.489500000000007</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="12"/>
+        <v>471.15000000000003</v>
+      </c>
     </row>
     <row r="37" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G37" s="19"/>
-      <c r="H37" s="20"/>
+      <c r="F37" t="s">
+        <v>113</v>
+      </c>
+      <c r="G37" s="19">
+        <v>230</v>
+      </c>
+      <c r="H37" s="74" t="s">
+        <v>109</v>
+      </c>
+      <c r="I37">
+        <f>I36/$C$25</f>
+        <v>1.9063327032136108E-2</v>
+      </c>
+      <c r="J37">
+        <f t="shared" ref="J37:K37" si="13">J36/$C$25</f>
+        <v>0.12190831758034028</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="13"/>
+        <v>0.8906427221172023</v>
+      </c>
     </row>
     <row r="38" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G38" s="19"/>
-      <c r="H38" s="20"/>
+      <c r="H38" s="63" t="s">
+        <v>22</v>
+      </c>
+      <c r="I38" s="64">
+        <f>H4*$G$36</f>
+        <v>4.2089999999999996</v>
+      </c>
+      <c r="J38" s="64">
+        <f t="shared" ref="J38:K38" si="14">I4*$G$36</f>
+        <v>55.586399999999998</v>
+      </c>
+      <c r="K38" s="64">
+        <f t="shared" si="14"/>
+        <v>576.99180000000001</v>
+      </c>
     </row>
     <row r="39" spans="1:31" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="16"/>
@@ -3776,10 +3852,21 @@
       <c r="E39" s="16"/>
       <c r="F39" s="16"/>
       <c r="G39" s="21"/>
-      <c r="H39" s="22"/>
-      <c r="I39" s="16"/>
-      <c r="J39" s="22"/>
-      <c r="K39" s="23"/>
+      <c r="H39" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="I39" s="66">
+        <f>I38/$B$25</f>
+        <v>2.6306249999999997E-3</v>
+      </c>
+      <c r="J39" s="66">
+        <f>J38/$B$25</f>
+        <v>3.4741500000000002E-2</v>
+      </c>
+      <c r="K39" s="67">
+        <f>K38/$B$25</f>
+        <v>0.36061987500000003</v>
+      </c>
       <c r="L39" s="16"/>
       <c r="M39" s="16"/>
       <c r="N39" s="16"/>
@@ -3809,10 +3896,21 @@
       <c r="E40" s="16"/>
       <c r="F40" s="16"/>
       <c r="G40" s="21"/>
-      <c r="H40" s="22"/>
-      <c r="I40" s="16"/>
-      <c r="J40" s="22"/>
-      <c r="K40" s="23"/>
+      <c r="H40" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="73">
+        <f>H3*$G$37</f>
+        <v>17.181000000000001</v>
+      </c>
+      <c r="J40" s="73">
+        <f t="shared" ref="J40:K40" si="15">I3*$G$37</f>
+        <v>109.87100000000001</v>
+      </c>
+      <c r="K40" s="73">
+        <f t="shared" si="15"/>
+        <v>802.7</v>
+      </c>
       <c r="L40" s="16"/>
       <c r="M40" s="16"/>
       <c r="N40" s="16"/>
@@ -3842,10 +3940,21 @@
       <c r="E41" s="16"/>
       <c r="F41" s="16"/>
       <c r="G41" s="21"/>
-      <c r="H41" s="22"/>
-      <c r="I41" s="16"/>
-      <c r="J41" s="22"/>
-      <c r="K41" s="23"/>
+      <c r="H41" s="74" t="s">
+        <v>114</v>
+      </c>
+      <c r="I41" s="75">
+        <f>I40/$C$25</f>
+        <v>3.247826086956522E-2</v>
+      </c>
+      <c r="J41" s="75">
+        <f t="shared" ref="J41:K41" si="16">J40/$C$25</f>
+        <v>0.20769565217391306</v>
+      </c>
+      <c r="K41" s="75">
+        <f t="shared" si="16"/>
+        <v>1.5173913043478262</v>
+      </c>
       <c r="L41" s="16"/>
       <c r="M41" s="16"/>
       <c r="N41" s="16"/>
@@ -35530,7 +35639,7 @@
   <dimension ref="A1:N1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -35838,6 +35947,10 @@
         <f t="shared" si="1"/>
         <v>53.12</v>
       </c>
+      <c r="K8" s="76">
+        <f>J8/H20</f>
+        <v>3.32E-2</v>
+      </c>
       <c r="L8" s="60">
         <f>J8/I20</f>
         <v>0.10041587901701322</v>
@@ -41048,7 +41161,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -42408,7 +42521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>

--- a/proyecto_II_Prueba.xlsx
+++ b/proyecto_II_Prueba.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Programación\Potencia 1\Proyecto_2_Ver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DBE6A2-5FCF-4EE8-B364-4B3D51D266EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCCDCF91-3E7F-421F-95D4-A621ED2BC644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GEN" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="116">
   <si>
     <t>Tecnología de Generación</t>
   </si>
@@ -393,6 +393,9 @@
   <si>
     <t>230KV - 230 km</t>
   </si>
+  <si>
+    <t>230KV - 138 km</t>
+  </si>
 </sst>
 </file>
 
@@ -624,7 +627,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -792,6 +795,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2396,11 +2408,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AE1000"/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H35" sqref="H35"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3427,10 +3439,10 @@
       <c r="C22" s="54" t="s">
         <v>93</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="77" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="56" t="s">
+      <c r="E22" s="78" t="s">
         <v>94</v>
       </c>
       <c r="H22" s="63" t="s">
@@ -3459,10 +3471,10 @@
       <c r="C23" s="50">
         <v>230000</v>
       </c>
-      <c r="D23" s="34">
+      <c r="D23" s="79">
         <v>115000</v>
       </c>
-      <c r="E23" s="34">
+      <c r="E23" s="79">
         <f>765000</f>
         <v>765000</v>
       </c>
@@ -3493,10 +3505,10 @@
       <c r="C24" s="50">
         <v>100000000</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="79">
         <v>100000000</v>
       </c>
-      <c r="E24" s="34">
+      <c r="E24" s="79">
         <v>100000000</v>
       </c>
       <c r="G24" s="34"/>
@@ -3528,11 +3540,11 @@
         <f>(C23*C23)/C24</f>
         <v>529</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="79">
         <f>(D23*D23)/D24</f>
         <v>132.25</v>
       </c>
-      <c r="E25" s="34">
+      <c r="E25" s="79">
         <f>(E23*E23)/E24</f>
         <v>5852.25</v>
       </c>
@@ -3753,7 +3765,7 @@
         <v>105.09400000000001</v>
       </c>
       <c r="K34">
-        <f t="shared" si="10"/>
+        <f>$G$34*J3</f>
         <v>767.80000000000007</v>
       </c>
     </row>
@@ -3776,7 +3788,7 @@
         <v>0.19866540642722119</v>
       </c>
       <c r="K35">
-        <f t="shared" si="11"/>
+        <f>K34/$C$25</f>
         <v>1.4514177693761816</v>
       </c>
     </row>
@@ -3908,7 +3920,7 @@
         <v>109.87100000000001</v>
       </c>
       <c r="K40" s="73">
-        <f t="shared" si="15"/>
+        <f>J3*$G$37</f>
         <v>802.7</v>
       </c>
       <c r="L40" s="16"/>
@@ -3952,7 +3964,7 @@
         <v>0.20769565217391306</v>
       </c>
       <c r="K41" s="75">
-        <f t="shared" si="16"/>
+        <f>K40/$C$25</f>
         <v>1.5173913043478262</v>
       </c>
       <c r="L41" s="16"/>
@@ -3984,10 +3996,21 @@
       <c r="E42" s="16"/>
       <c r="F42" s="16"/>
       <c r="G42" s="21"/>
-      <c r="H42" s="22"/>
-      <c r="I42" s="16"/>
-      <c r="J42" s="22"/>
-      <c r="K42" s="23"/>
+      <c r="H42" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="73">
+        <f>H3*$G$36</f>
+        <v>10.3086</v>
+      </c>
+      <c r="J42" s="73">
+        <f t="shared" ref="J42:K42" si="17">I3*$G$36</f>
+        <v>65.922600000000003</v>
+      </c>
+      <c r="K42" s="73">
+        <f>J3*$G$36</f>
+        <v>481.62</v>
+      </c>
       <c r="L42" s="16"/>
       <c r="M42" s="16"/>
       <c r="N42" s="16"/>
@@ -4017,10 +4040,21 @@
       <c r="E43" s="16"/>
       <c r="F43" s="16"/>
       <c r="G43" s="21"/>
-      <c r="H43" s="22"/>
-      <c r="I43" s="16"/>
-      <c r="J43" s="22"/>
-      <c r="K43" s="23"/>
+      <c r="H43" s="74" t="s">
+        <v>115</v>
+      </c>
+      <c r="I43" s="75">
+        <f>I42/$C$25</f>
+        <v>1.9486956521739131E-2</v>
+      </c>
+      <c r="J43" s="75">
+        <f t="shared" ref="J43:K43" si="18">J42/$C$25</f>
+        <v>0.12461739130434783</v>
+      </c>
+      <c r="K43" s="75">
+        <f>K42/$C$25</f>
+        <v>0.9104347826086957</v>
+      </c>
       <c r="L43" s="16"/>
       <c r="M43" s="16"/>
       <c r="N43" s="16"/>
@@ -42521,7 +42555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
